--- a/model/Outputs/2. No PV/Summary.xlsx
+++ b/model/Outputs/2. No PV/Summary.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.15" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -592,154 +596,154 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.01</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.03</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.05</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>0.06</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.08</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.09</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.11</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.12</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.13</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.14</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.15</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>0.16</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>0.17</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.18</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.19</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.2</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.21</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.22</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>0.23</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>0.24</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0.25</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.26</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.27</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.28</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.29</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>0.31</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>0.32</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.33</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>0.35</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>0.36</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>0.37</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>0.38</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>0.39</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>0.4</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>0.42</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>0.43</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>0.44</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>0.45</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>0.46</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>0.47</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="n">
         <v>0.48</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -854,49 +858,22 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.0283203125</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0263214111328125</v>
+        <v>0.0690455436706543</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.06369560433086008</v>
+        <v>0.1098330349777825</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1014370522952279</v>
+        <v>0.1511470640252597</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1391642470119591</v>
+        <v>0.1922572485830953</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1768771938638642</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.2149566932253358</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.2750993508580507</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.3435750059058318</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.4120036424526798</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.4811450888984258</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.5509978007806077</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.620042747070654</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.6897979660897389</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.7595042236208648</v>
+        <v>2.096128624291548</v>
       </c>
     </row>
     <row r="4">
@@ -1028,33 +1005,6 @@
       <c r="AP4" t="n">
         <v>2894072.398783949</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2894072.398783949</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2894072.398783949</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1168,49 +1118,3218 @@
         <v>2894072.398783949</v>
       </c>
       <c r="AK5" t="n">
-        <v>2894072.398783949</v>
+        <v>2893942.272281387</v>
       </c>
       <c r="AL5" t="n">
-        <v>2894572.016798547</v>
+        <v>2893758.014194295</v>
       </c>
       <c r="AM5" t="n">
-        <v>2894943.991268501</v>
+        <v>2894438.018550888</v>
       </c>
       <c r="AN5" t="n">
-        <v>2894415.642265745</v>
+        <v>2893428.999391087</v>
       </c>
       <c r="AO5" t="n">
-        <v>2894354.634322999</v>
+        <v>2894145.402496939</v>
       </c>
       <c r="AP5" t="n">
-        <v>2894809.779634809</v>
+        <v>2894072.398783948</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0283203125</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0690455436706543</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1098330349777825</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1511470640252597</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1922572485830953</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2703457229773873</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.4779534317569663</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.6877628464667565</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.8980122751578314</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1.107032932398173</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.317507587218814</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.527077306967344</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.737179137332423</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.94710880720881</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2.157610345532125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2893942.272281387</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2893758.014194295</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2894438.018550889</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2893428.999391087</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2894145.40249694</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2893423.10630895</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2893608.95119955</v>
+        <v>2893349.643669842</v>
       </c>
       <c r="AR5" t="n">
-        <v>2894857.306854828</v>
+        <v>2893538.07268424</v>
       </c>
       <c r="AS5" t="n">
-        <v>2894410.872541569</v>
+        <v>2893291.466021306</v>
       </c>
       <c r="AT5" t="n">
-        <v>2894785.878223576</v>
+        <v>2894259.728528658</v>
       </c>
       <c r="AU5" t="n">
-        <v>2894492.895409149</v>
+        <v>2893790.44393731</v>
       </c>
       <c r="AV5" t="n">
-        <v>2893098.386179539</v>
+        <v>2894215.856011925</v>
       </c>
       <c r="AW5" t="n">
-        <v>2894405.987872924</v>
+        <v>2894115.177752306</v>
       </c>
       <c r="AX5" t="n">
-        <v>2894147.258378212</v>
+        <v>2894184.712163176</v>
       </c>
       <c r="AY5" t="n">
-        <v>2894268.686614422</v>
+        <v>2893688.848228228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0283203125</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0690455436706543</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1098330349777825</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1511470640252597</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1922572485830953</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.248964354988474</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.3588579774009211</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.4690878628506979</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.57856682804063</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.6888278579963519</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.7987691205238168</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.9089677421073475</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.01914613801856</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.128308266753232</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1.23908153185406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2893942.272281387</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2893758.014194295</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2894436.62903772</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2893428.999391087</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2894145.40249694</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2893837.342669687</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2893968.891419513</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2893528.465455822</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2894508.965023996</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2894017.750706027</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2894128.284715167</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2893754.512419876</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2893418.801426051</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2894995.533724866</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2893540.379322899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0283203125</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0690455436706543</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1098330349777825</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1511470640252597</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1922572485830953</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2415273574271129</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.3181466117373756</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.394552260663724</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.4711328156740404</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.5478098614272168</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.6245064685097664</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.7011473128526842</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.7784641727076994</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.8547554264301978</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.9315436240271168</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2893942.272281387</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2893758.014194295</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2894438.018550889</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2893428.999391088</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2894145.40249694</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2893885.58226743</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2894013.583614568</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2894718.265366768</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2894950.745016646</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2894922.724113323</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2894841.892577889</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2894911.606308159</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2893156.249470435</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2894169.769283201</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2893841.666569672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Feed-in Tariffs</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0283203125</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.0690455436706543</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1098330349777825</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.1511470640252597</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1922572485830953</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2378088586464323</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2975115989267013</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.3576227997742047</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.4176473263892538</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.4779945760179505</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.537755166097724</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.5977696639510106</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.6575744940768717</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.7179601111272409</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.7776554167231933</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Base NPV</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2894072.398783949</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>NPV</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2894072.398783949</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2893942.272281387</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2893758.014194294</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2894438.018550889</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2893428.999391086</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>2894145.40249694</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>2893900.570831108</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>2894926.020607861</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>2894542.413692163</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2894457.804812256</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2893259.90603692</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>2894085.792737851</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2894035.779838591</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>2894709.052705988</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2893378.798749716</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2894429.895779915</v>
       </c>
     </row>
   </sheetData>

--- a/model/Outputs/2. No PV/Summary.xlsx
+++ b/model/Outputs/2. No PV/Summary.xlsx
@@ -7,12 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0.4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -873,36 +872,6 @@
       <c r="AO3" t="n">
         <v>0.170039362159514</v>
       </c>
-      <c r="AP3" t="n">
-        <v>0.2298824971257716</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.3476986690905912</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0.4618330856815103</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0.572400801753963</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.6795132766991516</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.8870436969054547</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.9843235813771593</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1.172803357541087</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1.261153252617928</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1.432331174329307</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1030,36 +999,6 @@
       <c r="AO4" t="n">
         <v>2894072.398783948</v>
       </c>
-      <c r="AP4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2894072.398783948</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1176,46 +1115,16 @@
         <v>2957466.755381332</v>
       </c>
       <c r="AL5" t="n">
-        <v>3005305.231344442</v>
+        <v>3005305.231344441</v>
       </c>
       <c r="AM5" t="n">
-        <v>2896166.6806224</v>
+        <v>2896165.291109231</v>
       </c>
       <c r="AN5" t="n">
-        <v>2949795.881765041</v>
+        <v>2949795.88176504</v>
       </c>
       <c r="AO5" t="n">
-        <v>3005317.261963361</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2931507.185263841</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2954632.971574068</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2983516.471989407</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>3017976.253205567</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3057815.25628151</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2941167.199322976</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>2996429.874920758</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>2909689.15725724</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>2978813.250223111</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>2919040.433482096</v>
+        <v>3005318.699777436</v>
       </c>
     </row>
   </sheetData>
@@ -1676,31 +1585,31 @@
         <v>0.2298824971257716</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2906314607951317</v>
+        <v>0.3476986690905912</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.3196109025076697</v>
+        <v>0.4618330856815103</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.3771169821559873</v>
+        <v>0.572400801753963</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4337245293098</v>
+        <v>0.6795132766991516</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.4894475835393344</v>
+        <v>0.8870436969054547</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.5442999650465323</v>
+        <v>0.9843235813771593</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.5982952780926802</v>
+        <v>1.172803357541087</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.6514469143724821</v>
+        <v>1.261153252617928</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.7037680563354121</v>
+        <v>1.432331174329307</v>
       </c>
     </row>
     <row r="4">
@@ -1975,46 +1884,46 @@
         <v>2957466.755381332</v>
       </c>
       <c r="AL5" t="n">
-        <v>3005305.23134444</v>
+        <v>3005305.231344442</v>
       </c>
       <c r="AM5" t="n">
-        <v>2896154.550748563</v>
+        <v>2896166.6806224</v>
       </c>
       <c r="AN5" t="n">
-        <v>2949795.88176504</v>
+        <v>2949795.881765041</v>
       </c>
       <c r="AO5" t="n">
-        <v>3005318.699777435</v>
+        <v>3005317.261963361</v>
       </c>
       <c r="AP5" t="n">
-        <v>2919407.122336977</v>
+        <v>2931507.185263841</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2896362.229206644</v>
+        <v>2954632.971574068</v>
       </c>
       <c r="AR5" t="n">
-        <v>2993494.646143364</v>
+        <v>2983516.471989407</v>
       </c>
       <c r="AS5" t="n">
-        <v>2982975.545413406</v>
+        <v>3017976.253205567</v>
       </c>
       <c r="AT5" t="n">
-        <v>2975925.974864233</v>
+        <v>3057815.25628151</v>
       </c>
       <c r="AU5" t="n">
-        <v>2972333.305966834</v>
+        <v>2941167.199322976</v>
       </c>
       <c r="AV5" t="n">
-        <v>2972212.802773571</v>
+        <v>2996429.874920758</v>
       </c>
       <c r="AW5" t="n">
-        <v>2975480.799969529</v>
+        <v>2909689.15725724</v>
       </c>
       <c r="AX5" t="n">
-        <v>2982219.227983666</v>
+        <v>2978813.250223111</v>
       </c>
       <c r="AY5" t="n">
-        <v>2992175.351702838</v>
+        <v>2919040.433482096</v>
       </c>
     </row>
   </sheetData>
@@ -2457,49 +2366,49 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.015625</v>
+        <v>0.0467529296875</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0467529296875</v>
+        <v>0.1094875633716583</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.07763767242431641</v>
+        <v>0.1398821917828172</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1082811281085014</v>
+        <v>0.170039362159514</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1386851817951538</v>
+        <v>0.2298824971257716</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1688517038123791</v>
+        <v>0.2906314607951317</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1987825498763449</v>
+        <v>0.3196109025076697</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.258176572534527</v>
+        <v>0.3771169821559873</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.287409568061601</v>
+        <v>0.4337245293098</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.3164141808111198</v>
+        <v>0.4894475835393344</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.3451921950235329</v>
+        <v>0.5442999650465323</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3737453809999116</v>
+        <v>0.5982952780926802</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.430405609421788</v>
+        <v>0.6514469143724821</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.4582930655981803</v>
+        <v>0.7037680563354121</v>
       </c>
     </row>
     <row r="4">
@@ -2771,49 +2680,49 @@
         <v>2894072.398783948</v>
       </c>
       <c r="AK5" t="n">
-        <v>2894072.398783948</v>
+        <v>2957466.755381332</v>
       </c>
       <c r="AL5" t="n">
-        <v>2907129.903738366</v>
+        <v>3005305.23134444</v>
       </c>
       <c r="AM5" t="n">
-        <v>2925094.411385742</v>
+        <v>2896154.550748563</v>
       </c>
       <c r="AN5" t="n">
-        <v>2944191.801404092</v>
+        <v>2949795.88176504</v>
       </c>
       <c r="AO5" t="n">
-        <v>2964813.328391317</v>
+        <v>3005318.699777435</v>
       </c>
       <c r="AP5" t="n">
-        <v>2986577.807853997</v>
+        <v>2919407.122336977</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3009815.507963485</v>
+        <v>2896362.229206644</v>
       </c>
       <c r="AR5" t="n">
-        <v>3034144.601404216</v>
+        <v>2993494.646143364</v>
       </c>
       <c r="AS5" t="n">
-        <v>2911220.470405118</v>
+        <v>2982975.545413406</v>
       </c>
       <c r="AT5" t="n">
-        <v>2939323.715839087</v>
+        <v>2975925.974864233</v>
       </c>
       <c r="AU5" t="n">
-        <v>2968474.365938614</v>
+        <v>2972333.305966834</v>
       </c>
       <c r="AV5" t="n">
-        <v>2999836.790765259</v>
+        <v>2972212.802773571</v>
       </c>
       <c r="AW5" t="n">
-        <v>3032168.624328383</v>
+        <v>2975480.799969529</v>
       </c>
       <c r="AX5" t="n">
-        <v>2924047.412278001</v>
+        <v>2982219.227983666</v>
       </c>
       <c r="AY5" t="n">
-        <v>2959977.193958112</v>
+        <v>2992175.351702838</v>
       </c>
     </row>
   </sheetData>
@@ -3259,46 +3168,46 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>0.015625</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>0.0467529296875</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>0.07763767242431641</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0166015625</v>
+        <v>0.1082811281085014</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.03216171264648438</v>
+        <v>0.1386851817951538</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.06316044926643372</v>
+        <v>0.1688517038123791</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0939170082565397</v>
+        <v>0.1987825498763449</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1245524858223988</v>
+        <v>0.258176572534527</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.139690952674655</v>
+        <v>0.287409568061601</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1698496171068843</v>
+        <v>0.3164141808111198</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1997726669732368</v>
+        <v>0.3451921950235329</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2294619430125084</v>
+        <v>0.3737453809999116</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2607603546183616</v>
+        <v>0.430405609421788</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.2753667594831336</v>
+        <v>0.4582930655981803</v>
       </c>
     </row>
     <row r="4">
@@ -3573,46 +3482,46 @@
         <v>2894072.398783948</v>
       </c>
       <c r="AL5" t="n">
-        <v>2894072.398783948</v>
+        <v>2907129.903738366</v>
       </c>
       <c r="AM5" t="n">
-        <v>2894072.398783948</v>
+        <v>2925094.411385742</v>
       </c>
       <c r="AN5" t="n">
-        <v>2894072.398783948</v>
+        <v>2944191.801404092</v>
       </c>
       <c r="AO5" t="n">
-        <v>2895819.050998527</v>
+        <v>2964813.328391317</v>
       </c>
       <c r="AP5" t="n">
-        <v>2951994.031395465</v>
+        <v>2986577.807853997</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2931388.166934802</v>
+        <v>3009815.507963485</v>
       </c>
       <c r="AR5" t="n">
-        <v>2912666.173866785</v>
+        <v>3034144.601404216</v>
       </c>
       <c r="AS5" t="n">
-        <v>2894285.908039934</v>
+        <v>2911220.470405118</v>
       </c>
       <c r="AT5" t="n">
-        <v>2953785.592644633</v>
+        <v>2939323.715839087</v>
       </c>
       <c r="AU5" t="n">
-        <v>2938619.333062084</v>
+        <v>2968474.365938614</v>
       </c>
       <c r="AV5" t="n">
-        <v>2925468.676851616</v>
+        <v>2999836.790765259</v>
       </c>
       <c r="AW5" t="n">
-        <v>2913982.872528687</v>
+        <v>3032168.624328383</v>
       </c>
       <c r="AX5" t="n">
-        <v>2894608.445916448</v>
+        <v>2924047.412278001</v>
       </c>
       <c r="AY5" t="n">
-        <v>2958825.816885826</v>
+        <v>2959977.193958112</v>
       </c>
     </row>
   </sheetData>
@@ -4067,37 +3976,37 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>0.0166015625</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>0.03216171264648438</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>0.06316044926643372</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0078125</v>
+        <v>0.0939170082565397</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.023406982421875</v>
+        <v>0.1245524858223988</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.05544496327638626</v>
+        <v>0.139690952674655</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.07085338138858788</v>
+        <v>0.1698496171068843</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.08620161036753871</v>
+        <v>0.1997726669732368</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1167781602865423</v>
+        <v>0.2294619430125084</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.131946995597923</v>
+        <v>0.2607603546183616</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1621661596948142</v>
+        <v>0.2753667594831336</v>
       </c>
     </row>
     <row r="4">
@@ -4381,836 +4290,37 @@
         <v>2894072.398783948</v>
       </c>
       <c r="AO5" t="n">
-        <v>2894072.398783948</v>
+        <v>2895819.050998527</v>
       </c>
       <c r="AP5" t="n">
-        <v>2894072.398783948</v>
+        <v>2951994.031395465</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2894072.398783948</v>
+        <v>2931388.166934802</v>
       </c>
       <c r="AR5" t="n">
-        <v>2916222.371250389</v>
+        <v>2912666.173866785</v>
       </c>
       <c r="AS5" t="n">
-        <v>2946329.953322956</v>
+        <v>2894285.908039934</v>
       </c>
       <c r="AT5" t="n">
-        <v>2894518.976453952</v>
+        <v>2953785.592644633</v>
       </c>
       <c r="AU5" t="n">
-        <v>2926556.527560402</v>
+        <v>2938619.333062084</v>
       </c>
       <c r="AV5" t="n">
-        <v>2959033.322362312</v>
+        <v>2925468.676851616</v>
       </c>
       <c r="AW5" t="n">
-        <v>2915473.939165581</v>
+        <v>2913982.872528687</v>
       </c>
       <c r="AX5" t="n">
-        <v>2949094.264514435</v>
+        <v>2894608.445916448</v>
       </c>
       <c r="AY5" t="n">
-        <v>2907317.986515492</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AY5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Prices</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Feed-in Tariffs</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0.001953125</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.01757049560546875</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.03312686085700989</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.04862245905678719</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.06405752757609662</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Base NPV</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2894072.398783948</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>NPV</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2894072.398783948</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2900101.51873192</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>2911497.701804355</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>2923512.921702824</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>2935589.761253612</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>2948027.102474719</v>
+        <v>2958825.816885826</v>
       </c>
     </row>
   </sheetData>
